--- a/media/static/documents/MBA2021_Stream-Group_Allocation_-_v1_-_small_-_ZZZ_QQQ.xlsx
+++ b/media/static/documents/MBA2021_Stream-Group_Allocation_-_v1_-_small_-_ZZZ_QQQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanotuveri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAE9A56-A4E3-5048-8ED3-A097282DE4A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226224E2-4433-9D49-98CF-A26BD94677C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="141">
   <si>
     <t>LBSNo</t>
   </si>
@@ -978,10 +978,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AB1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20:AL20"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,118 +1140,44 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1270126</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="6">
-        <v>36.903490759753602</v>
-      </c>
-      <c r="K2" s="5">
-        <v>11</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="5">
-        <v>680</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>38</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>81</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>3</v>
-      </c>
-      <c r="AG2" s="5">
-        <v>26</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
-      <c r="AI2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
     </row>
     <row r="3" spans="1:39" ht="26" x14ac:dyDescent="0.2">
@@ -1364,109 +1290,41 @@
       <c r="AM3" s="9"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>1776650</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="6">
-        <v>29.694729637234801</v>
-      </c>
-      <c r="K4" s="5">
-        <v>6</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="5">
-        <v>750</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>15</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>74</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>74</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>79</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>7</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>82</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AI4" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="AI4" s="5"/>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
